--- a/sprints/sprint2/sprint2_backlog.xlsx
+++ b/sprints/sprint2/sprint2_backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Corley\git\SE2-project-repos-sample\sprints\sprint1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jgain\OneDrive\Documents\School\Spring 2024\UWG-SE2-Group5-Myst\sprints\sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9C4265-351C-41A0-89E5-93A08D9C51A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61377408-D610-40FC-A0AC-513B9C37DF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Related User Story</t>
   </si>
@@ -64,6 +69,99 @@
   </si>
   <si>
     <t>That User Story</t>
+  </si>
+  <si>
+    <t>Library refactor and redesigning</t>
+  </si>
+  <si>
+    <t>Implement ability to select different games on library page (owned, played, liked, disliked)</t>
+  </si>
+  <si>
+    <t>Implement ability select owned games on library page</t>
+  </si>
+  <si>
+    <t>Remove games on library page (liked, disliked, owned)</t>
+  </si>
+  <si>
+    <t>Implement game details displayed on click</t>
+  </si>
+  <si>
+    <t>Implement static Image loader</t>
+  </si>
+  <si>
+    <t>Implement ability to show different library of games (owned, played, liked, disliked)</t>
+  </si>
+  <si>
+    <t>Mystiverse refactor and redesign</t>
+  </si>
+  <si>
+    <t>Test above</t>
+  </si>
+  <si>
+    <t>Skip button for recommendation views</t>
+  </si>
+  <si>
+    <t>Custom seed info for recommendation, user can input</t>
+  </si>
+  <si>
+    <t>Implement seeded recommendation engine</t>
+  </si>
+  <si>
+    <t>Library page becomes landing page if not first time login, if first time go to selection page</t>
+  </si>
+  <si>
+    <t>Redesign selection page</t>
+  </si>
+  <si>
+    <t>Implement seeded recommendation preferences pages</t>
+  </si>
+  <si>
+    <t>integrate login with server</t>
+  </si>
+  <si>
+    <t>login java model server implementation</t>
+  </si>
+  <si>
+    <t>login credential/ credentialManager python model</t>
+  </si>
+  <si>
+    <t>Implement base sever project</t>
+  </si>
+  <si>
+    <t>integrate library with server</t>
+  </si>
+  <si>
+    <t>library java model server implementation</t>
+  </si>
+  <si>
+    <t>library python model</t>
+  </si>
+  <si>
+    <t>server reads in game database on startup</t>
+  </si>
+  <si>
+    <t>integrate mystiverse with server</t>
+  </si>
+  <si>
+    <t>recommendation engine java model server implementation</t>
+  </si>
+  <si>
+    <t>recommendation engine python model</t>
+  </si>
+  <si>
+    <t>Implement requests</t>
+  </si>
+  <si>
+    <t>Dillion</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>Thomas</t>
   </si>
 </sst>
 </file>
@@ -87,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +222,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -137,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -145,13 +267,17 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -261,12 +387,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$27:$G$27</c:f>
+              <c:f>Sheet1!$C$44:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>75</c:v>
@@ -1028,7 +1154,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1320,27 +1446,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.44140625" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -1350,24 +1476,24 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1390,236 +1516,540 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8">
+        <v>3</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8">
+        <v>3</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8">
+        <v>3</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8">
+        <v>3</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9">
+        <v>3</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9">
+        <v>3</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9">
+        <v>3</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9">
+        <v>3</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9">
+        <v>3</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10">
+        <v>3</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10">
+        <v>3</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10">
+        <v>3</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10">
+        <v>3</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10">
+        <v>3</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10">
+        <v>3</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10">
+        <v>3</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10">
+        <v>3</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10">
+        <v>3</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11">
+        <v>3</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="3">
-        <f>SUM(C3:C26)</f>
-        <v>100</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" ref="D27:G27" si="0">SUM(D3:D26)</f>
+      <c r="C44" s="3">
+        <f>SUM(C3:C43)</f>
+        <v>199</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" ref="D44:G44" si="0">SUM(D3:D43)</f>
         <v>75</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E44" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F44" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G44" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/sprints/sprint2/sprint2_backlog.xlsx
+++ b/sprints/sprint2/sprint2_backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jgain\OneDrive\Documents\School\Spring 2024\UWG-SE2-Group5-Myst\sprints\sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61377408-D610-40FC-A0AC-513B9C37DF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9618C35A-6090-4EAE-ADB0-1753E9FE9C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,16 +268,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,7 +395,7 @@
                   <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>50</c:v>
@@ -1448,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:C36"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1460,26 +1460,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1517,430 +1517,496 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10">
-        <v>3</v>
-      </c>
-      <c r="D25" s="2"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11">
-        <v>3</v>
-      </c>
-      <c r="D27" s="2"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11">
-        <v>3</v>
-      </c>
-      <c r="D28" s="2"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11">
-        <v>3</v>
-      </c>
-      <c r="D29" s="2"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11">
-        <v>3</v>
-      </c>
-      <c r="D30" s="2"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11">
-        <v>3</v>
-      </c>
-      <c r="D31" s="2"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11">
-        <v>3</v>
-      </c>
-      <c r="D32" s="2"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11">
-        <v>3</v>
-      </c>
-      <c r="D33" s="2"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11">
-        <v>3</v>
-      </c>
-      <c r="D35" s="2"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11">
-        <v>3</v>
-      </c>
-      <c r="D36" s="2"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2017,7 +2083,7 @@
       </c>
       <c r="D44" s="3">
         <f t="shared" ref="D44:G44" si="0">SUM(D3:D43)</f>
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" si="0"/>
@@ -2033,22 +2099,22 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="9" t="s">
         <v>41</v>
       </c>
     </row>

--- a/sprints/sprint2/sprint2_backlog.xlsx
+++ b/sprints/sprint2/sprint2_backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jgain\OneDrive\Documents\School\Spring 2024\UWG-SE2-Group5-Myst\sprints\sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9618C35A-6090-4EAE-ADB0-1753E9FE9C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7F656F-B6C0-464C-BC94-4C59AB0775E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,13 +392,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>199</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>171</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25</c:v>
@@ -1449,7 +1449,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1722,7 +1722,9 @@
       <c r="D17" s="2">
         <v>2</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
@@ -1732,12 +1734,14 @@
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2">
-        <v>3</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
@@ -1747,12 +1751,14 @@
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
@@ -1765,9 +1771,11 @@
         <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
@@ -1777,12 +1785,14 @@
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D21" s="2">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
@@ -1792,12 +1802,14 @@
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="E22" s="2">
+        <v>8</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
@@ -1807,12 +1819,14 @@
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2">
-        <v>3</v>
-      </c>
-      <c r="E23" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
@@ -1827,7 +1841,9 @@
       <c r="D24" s="2">
         <v>3</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
@@ -1842,7 +1858,9 @@
       <c r="D25" s="2">
         <v>3</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
@@ -2079,15 +2097,15 @@
       </c>
       <c r="C44" s="3">
         <f>SUM(C3:C43)</f>
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="D44" s="3">
         <f t="shared" ref="D44:G44" si="0">SUM(D3:D43)</f>
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="0"/>

--- a/sprints/sprint2/sprint2_backlog.xlsx
+++ b/sprints/sprint2/sprint2_backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jgain\OneDrive\Documents\School\Spring 2024\UWG-SE2-Group5-Myst\sprints\sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7F656F-B6C0-464C-BC94-4C59AB0775E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79DD961-75AF-4F62-B67B-2412E4F9F1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,7 +398,7 @@
                   <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25</c:v>
@@ -1448,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1527,7 +1527,9 @@
       <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
@@ -1542,7 +1544,9 @@
       <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
@@ -1557,7 +1561,9 @@
       <c r="D6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
@@ -1572,7 +1578,9 @@
       <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
@@ -1587,7 +1595,9 @@
       <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
@@ -1602,7 +1612,9 @@
       <c r="D9" s="2">
         <v>3</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
@@ -1617,7 +1629,9 @@
       <c r="D10" s="2">
         <v>3</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
@@ -1632,7 +1646,9 @@
       <c r="D11" s="2">
         <v>3</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
@@ -1647,7 +1663,9 @@
       <c r="D12" s="2">
         <v>3</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
@@ -1662,7 +1680,9 @@
       <c r="D13" s="2">
         <v>3</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
@@ -1677,7 +1697,9 @@
       <c r="D14" s="2">
         <v>3</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
@@ -1692,7 +1714,9 @@
       <c r="D15" s="2">
         <v>3</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
@@ -1707,7 +1731,9 @@
       <c r="D16" s="2">
         <v>3</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
@@ -1875,7 +1901,9 @@
       <c r="D26" s="2">
         <v>3</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
@@ -1890,7 +1918,9 @@
       <c r="D27" s="2">
         <v>3</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
@@ -1905,7 +1935,9 @@
       <c r="D28" s="2">
         <v>3</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
@@ -1920,7 +1952,9 @@
       <c r="D29" s="2">
         <v>3</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
@@ -1935,7 +1969,9 @@
       <c r="D30" s="2">
         <v>3</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
@@ -1950,7 +1986,9 @@
       <c r="D31" s="2">
         <v>3</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
@@ -1965,7 +2003,9 @@
       <c r="D32" s="2">
         <v>3</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
@@ -1980,7 +2020,9 @@
       <c r="D33" s="2">
         <v>3</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
@@ -1995,7 +2037,9 @@
       <c r="D34" s="2">
         <v>3</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
@@ -2010,7 +2054,9 @@
       <c r="D35" s="2">
         <v>3</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
@@ -2025,7 +2071,9 @@
       <c r="D36" s="2">
         <v>3</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2">
+        <v>3</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
@@ -2105,7 +2153,7 @@
       </c>
       <c r="E44" s="3">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="0"/>

--- a/sprints/sprint2/sprint2_backlog.xlsx
+++ b/sprints/sprint2/sprint2_backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jgain\OneDrive\Documents\School\Spring 2024\UWG-SE2-Group5-Myst\sprints\sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79DD961-75AF-4F62-B67B-2412E4F9F1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D36647-CB37-4D7A-9808-7868ABCBD54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,10 +398,10 @@
                   <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>129</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1448,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1530,7 +1530,9 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1547,7 +1549,9 @@
       <c r="E5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1564,7 +1568,9 @@
       <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1581,7 +1587,9 @@
       <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1598,7 +1606,9 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1615,7 +1625,9 @@
       <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1632,7 +1644,9 @@
       <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1649,7 +1663,9 @@
       <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1666,7 +1682,9 @@
       <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1683,7 +1701,9 @@
       <c r="E13" s="2">
         <v>2</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1700,7 +1720,9 @@
       <c r="E14" s="2">
         <v>3</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1717,7 +1739,9 @@
       <c r="E15" s="2">
         <v>2</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1734,7 +1758,9 @@
       <c r="E16" s="2">
         <v>3</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1751,7 +1777,9 @@
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1768,7 +1796,9 @@
       <c r="E18" s="2">
         <v>2</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1785,7 +1815,9 @@
       <c r="E19" s="2">
         <v>2</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1802,7 +1834,9 @@
       <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1819,7 +1853,9 @@
       <c r="E21" s="2">
         <v>3</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1836,7 +1872,9 @@
       <c r="E22" s="2">
         <v>8</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2">
+        <v>8</v>
+      </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1853,7 +1891,9 @@
       <c r="E23" s="2">
         <v>6</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1870,7 +1910,9 @@
       <c r="E24" s="2">
         <v>3</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1887,7 +1929,9 @@
       <c r="E25" s="2">
         <v>0</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1902,9 +1946,11 @@
         <v>3</v>
       </c>
       <c r="E26" s="2">
-        <v>2</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1919,9 +1965,11 @@
         <v>3</v>
       </c>
       <c r="E27" s="2">
-        <v>2</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1936,9 +1984,11 @@
         <v>3</v>
       </c>
       <c r="E28" s="2">
-        <v>2</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1953,9 +2003,11 @@
         <v>3</v>
       </c>
       <c r="E29" s="2">
-        <v>2</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1970,9 +2022,11 @@
         <v>3</v>
       </c>
       <c r="E30" s="2">
-        <v>3</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1989,7 +2043,9 @@
       <c r="E31" s="2">
         <v>3</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2">
+        <v>3</v>
+      </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2006,7 +2062,9 @@
       <c r="E32" s="2">
         <v>2</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2023,7 +2081,9 @@
       <c r="E33" s="2">
         <v>2</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2040,7 +2100,9 @@
       <c r="E34" s="2">
         <v>2</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2">
+        <v>2</v>
+      </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2057,7 +2119,9 @@
       <c r="E35" s="2">
         <v>3</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2">
+        <v>3</v>
+      </c>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2074,7 +2138,9 @@
       <c r="E36" s="2">
         <v>3</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2">
+        <v>3</v>
+      </c>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2153,11 +2219,11 @@
       </c>
       <c r="E44" s="3">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="0"/>

--- a/sprints/sprint2/sprint2_backlog.xlsx
+++ b/sprints/sprint2/sprint2_backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jgain\OneDrive\Documents\School\Spring 2024\UWG-SE2-Group5-Myst\sprints\sprint2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de0b3ea1232571d3/Documents/School/Spring 24/SE2/UWG-SE2-Group5-Myst/sprints/sprint2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D36647-CB37-4D7A-9808-7868ABCBD54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{93D36647-CB37-4D7A-9808-7868ABCBD54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF1B3D73-7A46-4A13-8822-EB0AD4FFEC67}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1448,18 +1448,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1476,7 +1476,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1493,7 +1493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -1533,9 +1533,11 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1552,9 +1554,11 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1571,9 +1575,11 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1590,9 +1596,11 @@
       <c r="F7" s="2">
         <v>3</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -1609,9 +1617,11 @@
       <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -1628,9 +1638,11 @@
       <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1647,9 +1659,11 @@
       <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -1666,9 +1680,11 @@
       <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -1685,9 +1701,11 @@
       <c r="F12" s="2">
         <v>0</v>
       </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
@@ -1704,9 +1722,11 @@
       <c r="F13" s="2">
         <v>0</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
@@ -1723,9 +1743,11 @@
       <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
@@ -1742,9 +1764,11 @@
       <c r="F15" s="2">
         <v>0</v>
       </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
@@ -1761,9 +1785,11 @@
       <c r="F16" s="2">
         <v>3</v>
       </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
@@ -1780,9 +1806,11 @@
       <c r="F17" s="2">
         <v>0</v>
       </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>26</v>
       </c>
@@ -1799,9 +1827,11 @@
       <c r="F18" s="2">
         <v>0</v>
       </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
@@ -1818,9 +1848,11 @@
       <c r="F19" s="2">
         <v>0</v>
       </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>28</v>
       </c>
@@ -1837,9 +1869,11 @@
       <c r="F20" s="2">
         <v>0</v>
       </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>37</v>
       </c>
@@ -1856,9 +1890,11 @@
       <c r="F21" s="2">
         <v>0</v>
       </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
@@ -1875,9 +1911,11 @@
       <c r="F22" s="2">
         <v>8</v>
       </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
@@ -1894,9 +1932,11 @@
       <c r="F23" s="2">
         <v>0</v>
       </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
@@ -1913,9 +1953,11 @@
       <c r="F24" s="2">
         <v>0</v>
       </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>16</v>
       </c>
@@ -1932,9 +1974,11 @@
       <c r="F25" s="2">
         <v>0</v>
       </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>30</v>
       </c>
@@ -1951,9 +1995,11 @@
       <c r="F26" s="2">
         <v>0</v>
       </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>31</v>
       </c>
@@ -1970,9 +2016,11 @@
       <c r="F27" s="2">
         <v>0</v>
       </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>32</v>
       </c>
@@ -1989,9 +2037,11 @@
       <c r="F28" s="2">
         <v>0</v>
       </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>33</v>
       </c>
@@ -2008,9 +2058,11 @@
       <c r="F29" s="2">
         <v>0</v>
       </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>37</v>
       </c>
@@ -2027,9 +2079,11 @@
       <c r="F30" s="2">
         <v>0</v>
       </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>19</v>
       </c>
@@ -2046,9 +2100,11 @@
       <c r="F31" s="2">
         <v>3</v>
       </c>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>34</v>
       </c>
@@ -2065,9 +2121,11 @@
       <c r="F32" s="2">
         <v>2</v>
       </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>35</v>
       </c>
@@ -2084,9 +2142,11 @@
       <c r="F33" s="2">
         <v>2</v>
       </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>36</v>
       </c>
@@ -2103,9 +2163,11 @@
       <c r="F34" s="2">
         <v>2</v>
       </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>37</v>
       </c>
@@ -2122,9 +2184,11 @@
       <c r="F35" s="2">
         <v>3</v>
       </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>19</v>
       </c>
@@ -2141,9 +2205,11 @@
       <c r="F36" s="2">
         <v>3</v>
       </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2152,7 +2218,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2161,7 +2227,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2170,7 +2236,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2179,7 +2245,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2188,7 +2254,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2197,7 +2263,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -2205,7 +2271,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>8</v>
       </c>
@@ -2230,22 +2296,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>41</v>
       </c>
